--- a/data/factors/factor9.xlsx
+++ b/data/factors/factor9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0803\data\factors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0808\data\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2A3D1C-EDCF-42B0-84F0-1F4D3DBB7C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3809A3D-1247-4564-BC4E-E6C1AC095861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{39463EC9-AE6F-4343-BDCD-A24C31BDE4F8}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -556,32 +556,32 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.6">
@@ -611,7 +611,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.6">
@@ -621,57 +621,57 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.6">
@@ -681,22 +681,22 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.6">
